--- a/Stocks/BRITANNIA.xlsx
+++ b/Stocks/BRITANNIA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>3592.35</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>3890.3630131129084</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>3836.1780831184346</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>53.045825562678573</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>21.349999999999909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>88.349999999999909</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.24165251839275531</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>3782.6839172482646</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>58.968436730957364</v>
       </c>
       <c r="Y67">
         <v>52.905110040035893</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>4250</v>
+      </c>
+      <c r="D83">
+        <v>4258.8500000000004</v>
+      </c>
+      <c r="E83">
+        <v>4175.95</v>
+      </c>
+      <c r="F83">
+        <v>4185</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>4206.5999999999995</v>
+      </c>
+      <c r="H83">
+        <v>4215.9480575004036</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>4252.9311355857135</v>
+      </c>
+      <c r="K83">
+        <v>4159.7100185915679</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>48.336150287137784</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>9.0500000000001819</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>82.900000000000546</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.10916767189384949</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>4166.772659260133</v>
+      </c>
+      <c r="W83">
+        <v>4055.2240825998128</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>111.54857666032012</v>
+      </c>
+      <c r="Y83">
+        <v>113.81941228144601</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>4181</v>
+      </c>
+      <c r="D84">
+        <v>4219.25</v>
+      </c>
+      <c r="E84">
+        <v>4142.2</v>
+      </c>
+      <c r="F84">
+        <v>4154</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>4171.8166666666666</v>
+      </c>
+      <c r="H84">
+        <v>4193.8823620835356</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>4245.4464387888884</v>
+      </c>
+      <c r="K84">
+        <v>4155.8189033489971</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>39.547418989431911</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>11.800000000000182</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>77.050000000000182</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.15314730694354514</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>4164.8076347585738</v>
+      </c>
+      <c r="W84">
+        <v>4062.5408172220491</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>102.26681753652474</v>
+      </c>
+      <c r="Y84">
+        <v>111.50889333246175</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>4180</v>
+      </c>
+      <c r="D85">
+        <v>4262.5</v>
+      </c>
+      <c r="E85">
+        <v>4180</v>
+      </c>
+      <c r="F85">
+        <v>4230</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>4224.166666666667</v>
+      </c>
+      <c r="H85">
+        <v>4209.0245143751017</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>4249.2361190580241</v>
+      </c>
+      <c r="K85">
+        <v>4161.1924803825532</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>61.178823948989383</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>82.5</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>4174.8372294111014</v>
+      </c>
+      <c r="W85">
+        <v>4074.945201131527</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>99.892028279574333</v>
+      </c>
+      <c r="Y85">
+        <v>109.18552032188427</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>4267.7</v>
+      </c>
+      <c r="D86">
+        <v>4272</v>
+      </c>
+      <c r="E86">
+        <v>4212.25</v>
+      </c>
+      <c r="F86">
+        <v>4229.95</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>4238.0666666666666</v>
+      </c>
+      <c r="H86">
+        <v>4223.5455905208837</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>4254.2947592673518</v>
+      </c>
+      <c r="K86">
+        <v>4172.5385958530969</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>61.160826553878842</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>17.699999999999818</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>59.75</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.29623430962342789</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>4183.3161171940092</v>
+      </c>
+      <c r="W86">
+        <v>4086.4270380847474</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>96.889079109261729</v>
+      </c>
+      <c r="Y86">
+        <v>106.72623207935976</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>4220</v>
+      </c>
+      <c r="D87">
+        <v>4260.3</v>
+      </c>
+      <c r="E87">
+        <v>4201.5</v>
+      </c>
+      <c r="F87">
+        <v>4240</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>4233.9333333333334</v>
+      </c>
+      <c r="H87">
+        <v>4228.739461927109</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>4255.6292572079401</v>
+      </c>
+      <c r="K87">
+        <v>4178.9744634412973</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>63.833930860452114</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>38.5</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>58.800000000000182</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.65476190476190277</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>4192.0367145487771</v>
+      </c>
+      <c r="W87">
+        <v>4097.8028130414332</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>94.233901507343944</v>
+      </c>
+      <c r="Y87">
+        <v>104.2277659649566</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>4245</v>
+      </c>
+      <c r="D88">
+        <v>4259</v>
+      </c>
+      <c r="E88">
+        <v>4151</v>
+      </c>
+      <c r="F88">
+        <v>4216.25</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>4208.75</v>
+      </c>
+      <c r="H88">
+        <v>4218.7447309635545</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>4256.3783111617313</v>
+      </c>
+      <c r="K88">
+        <v>4172.7579160098976</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>53.048724934662175</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>65.25</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>108</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>4195.7618353874268</v>
+      </c>
+      <c r="W88">
+        <v>4106.576678742068</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>89.185156645358802</v>
+      </c>
+      <c r="Y88">
+        <v>101.21924410103705</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>4242</v>
+      </c>
+      <c r="D89">
+        <v>4271.8500000000004</v>
+      </c>
+      <c r="E89">
+        <v>4220</v>
+      </c>
+      <c r="F89">
+        <v>4250</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>4247.2833333333338</v>
+      </c>
+      <c r="H89">
+        <v>4233.0140321484441</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>4259.816464236902</v>
+      </c>
+      <c r="K89">
+        <v>4183.2561568965866</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>63.887008216883515</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>51.850000000000364</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.57859209257473077</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>4204.1061684047454</v>
+      </c>
+      <c r="W89">
+        <v>4117.2006284648778</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>86.905539939867595</v>
+      </c>
+      <c r="Y89">
+        <v>98.356503268803152</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>4230</v>
+      </c>
+      <c r="D90">
+        <v>4257</v>
+      </c>
+      <c r="E90">
+        <v>4209</v>
+      </c>
+      <c r="F90">
+        <v>4241.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>4235.833333333333</v>
+      </c>
+      <c r="H90">
+        <v>4234.4236827408886</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>4259.190583295368</v>
+      </c>
+      <c r="K90">
+        <v>4188.977010919567</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>59.558743674747582</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>32.5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>48</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>4209.859065573246</v>
+      </c>
+      <c r="W90">
+        <v>4126.4079893193311</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>83.451076253914835</v>
+      </c>
+      <c r="Y90">
+        <v>95.375417865825483</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>4251</v>
+      </c>
+      <c r="D91">
+        <v>4295</v>
+      </c>
+      <c r="E91">
+        <v>4244</v>
+      </c>
+      <c r="F91">
+        <v>4256</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>4265</v>
+      </c>
+      <c r="H91">
+        <v>4249.7118413704447</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>4267.1482314519526</v>
+      </c>
+      <c r="K91">
+        <v>4201.2043418263302</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>64.663590903977948</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>51</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>4216.9576708696695</v>
+      </c>
+      <c r="W91">
+        <v>4136.0073975178993</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>80.950273351770193</v>
+      </c>
+      <c r="Y91">
+        <v>92.490388963014425</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>4281</v>
+      </c>
+      <c r="D92">
+        <v>4350</v>
+      </c>
+      <c r="E92">
+        <v>4269.3500000000004</v>
+      </c>
+      <c r="F92">
+        <v>4289.8</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>4303.05</v>
+      </c>
+      <c r="H92">
+        <v>4276.380920685222</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>4285.5597355737409</v>
+      </c>
+      <c r="K92">
+        <v>4216.3478214204788</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>74.165596157552642</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>20.449999999999818</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>80.649999999999636</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.25356478611283212</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>4228.1641830435665</v>
+      </c>
+      <c r="W92">
+        <v>4147.399442146203</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>80.764740897363481</v>
+      </c>
+      <c r="Y92">
+        <v>90.145259349884242</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>4290</v>
+      </c>
+      <c r="D93">
+        <v>4330</v>
+      </c>
+      <c r="E93">
+        <v>4290</v>
+      </c>
+      <c r="F93">
+        <v>4295</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>4305</v>
+      </c>
+      <c r="H93">
+        <v>4290.690460342611</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>4295.4353498906876</v>
+      </c>
+      <c r="K93">
+        <v>4232.7149722159284</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>75.435852035176225</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>4238.4466164214791</v>
+      </c>
+      <c r="W93">
+        <v>4158.3328168020398</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>80.113799619439305</v>
+      </c>
+      <c r="Y93">
+        <v>88.138967403795249</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>4330</v>
+      </c>
+      <c r="D94">
+        <v>4338.5</v>
+      </c>
+      <c r="E94">
+        <v>4302.8999999999996</v>
+      </c>
+      <c r="F94">
+        <v>4316</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>4319.1333333333332</v>
+      </c>
+      <c r="H94">
+        <v>4304.9118968379717</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>4305.0052721372012</v>
+      </c>
+      <c r="K94">
+        <v>4248.3116450568332</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>80.320495705497564</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>13.100000000000364</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>35.600000000000364</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.36797752808989409</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>4250.3779062027897</v>
+      </c>
+      <c r="W94">
+        <v>4170.0118674092964</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>80.366038793493317</v>
+      </c>
+      <c r="Y94">
+        <v>86.584381681734868</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>4325</v>
+      </c>
+      <c r="D95">
+        <v>4360</v>
+      </c>
+      <c r="E95">
+        <v>4280</v>
+      </c>
+      <c r="F95">
+        <v>4318.3999999999996</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>4319.4666666666662</v>
+      </c>
+      <c r="H95">
+        <v>4312.1892817523185</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>4317.2263227733783</v>
+      </c>
+      <c r="K95">
+        <v>4255.3535017108707</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>80.864098973835681</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>38.399999999999636</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>80</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.47999999999999543</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>4260.8428437100529</v>
+      </c>
+      <c r="W95">
+        <v>4181.0035809345336</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>79.839262775519273</v>
+      </c>
+      <c r="Y95">
+        <v>85.235357900491749</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>4349</v>
+      </c>
+      <c r="D96">
+        <v>4349</v>
+      </c>
+      <c r="E96">
+        <v>4313.45</v>
+      </c>
+      <c r="F96">
+        <v>4340</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>4334.1500000000005</v>
+      </c>
+      <c r="H96">
+        <v>4323.16964087616</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>4324.2871399348496</v>
+      </c>
+      <c r="K96">
+        <v>4268.2638346640106</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>85.400874319240543</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>26.550000000000182</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>35.550000000000182</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.746835443037976</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>4273.0208677546598</v>
+      </c>
+      <c r="W96">
+        <v>4192.7810934579011</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>80.239774296758696</v>
+      </c>
+      <c r="Y96">
+        <v>84.236241179745136</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>4345</v>
+      </c>
+      <c r="D97">
+        <v>4380.8500000000004</v>
+      </c>
+      <c r="E97">
+        <v>4330</v>
+      </c>
+      <c r="F97">
+        <v>4356</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>4355.6166666666668</v>
+      </c>
+      <c r="H97">
+        <v>4339.3931537714134</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>4336.856664393772</v>
+      </c>
+      <c r="K97">
+        <v>4281.9829825164525</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>88.028796080920543</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>26</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>50.850000000000364</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.51130776794493238</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>4285.7868881000968</v>
+      </c>
+      <c r="W97">
+        <v>4204.8713828313903</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>80.915505268706511</v>
+      </c>
+      <c r="Y97">
+        <v>83.572093997537408</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>4379.8999999999996</v>
+      </c>
+      <c r="D98">
+        <v>4409</v>
+      </c>
+      <c r="E98">
+        <v>4362.3</v>
+      </c>
+      <c r="F98">
+        <v>4380.6000000000004</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>4383.9666666666662</v>
+      </c>
+      <c r="H98">
+        <v>4361.6799102190398</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>4352.8885167507115</v>
+      </c>
+      <c r="K98">
+        <v>4299.8312086239075</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>91.105745060521343</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>18.300000000000182</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>46.699999999999818</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.39186295503212532</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>4300.3735207000818</v>
+      </c>
+      <c r="W98">
+        <v>4217.8883174364728</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>82.485203263609037</v>
+      </c>
+      <c r="Y98">
+        <v>83.354715850751731</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>4370.25</v>
+      </c>
+      <c r="D99">
+        <v>4395</v>
+      </c>
+      <c r="E99">
+        <v>4323</v>
+      </c>
+      <c r="F99">
+        <v>4370</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>4362.666666666667</v>
+      </c>
+      <c r="H99">
+        <v>4362.1732884428529</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>4362.2466241394422</v>
+      </c>
+      <c r="K99">
+        <v>4304.9798289297059</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>80.026793724366982</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>47</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>72</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>4311.0852867462227</v>
+      </c>
+      <c r="W99">
+        <v>4229.1558494782157</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>81.92943726800695</v>
+      </c>
+      <c r="Y99">
+        <v>83.069660134202778</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>4370</v>
+      </c>
+      <c r="D100">
+        <v>4386.95</v>
+      </c>
+      <c r="E100">
+        <v>4341.25</v>
+      </c>
+      <c r="F100">
+        <v>4358</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>4362.0666666666666</v>
+      </c>
+      <c r="H100">
+        <v>4362.1199775547593</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>4367.7362632195664</v>
+      </c>
+      <c r="K100">
+        <v>4313.039866945327</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>68.277404571807566</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>16.75</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>45.699999999999818</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.36652078774617214</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>4318.3029349391118</v>
+      </c>
+      <c r="W100">
+        <v>4238.6998606279776</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>79.603074311134151</v>
+      </c>
+      <c r="Y100">
+        <v>82.376342969589047</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>4374</v>
+      </c>
+      <c r="D101">
+        <v>4374</v>
+      </c>
+      <c r="E101">
+        <v>4306.05</v>
+      </c>
+      <c r="F101">
+        <v>4319</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>4333.0166666666664</v>
+      </c>
+      <c r="H101">
+        <v>4347.5683221107129</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>4369.1282047263294</v>
+      </c>
+      <c r="K101">
+        <v>4311.4865631796993</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>42.768299309494203</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>12.949999999999818</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>67.949999999999818</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.19058130978660565</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>4318.4101757177095</v>
+      </c>
+      <c r="W101">
+        <v>4244.6480190999791</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>73.762156617730398</v>
+      </c>
+      <c r="Y101">
+        <v>80.65350569921732</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>4304.8999999999996</v>
+      </c>
+      <c r="D102">
+        <v>4345.7</v>
+      </c>
+      <c r="E102">
+        <v>4254.05</v>
+      </c>
+      <c r="F102">
+        <v>4262.1000000000004</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>4287.2833333333338</v>
+      </c>
+      <c r="H102">
+        <v>4317.4258277220233</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>4363.921937009367</v>
+      </c>
+      <c r="K102">
+        <v>4298.7228824730992</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>25.436746940855809</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>8.0500000000001819</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>91.649999999999636</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>8.7834151663941235E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>4309.7470717611386</v>
+      </c>
+      <c r="W102">
+        <v>4245.940758425907</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>63.806313335231607</v>
+      </c>
+      <c r="Y102">
+        <v>77.284067226420177</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>4232.6000000000004</v>
+      </c>
+      <c r="D103">
+        <v>4318.45</v>
+      </c>
+      <c r="E103">
+        <v>4232.6000000000004</v>
+      </c>
+      <c r="F103">
+        <v>4285.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>4278.8499999999995</v>
+      </c>
+      <c r="H103">
+        <v>4298.1379138610118</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>4353.8170621183963</v>
+      </c>
+      <c r="K103">
+        <v>4284.0289085901886</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>38.291753257466929</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>52.899999999999636</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>85.849999999999454</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.61619103086779237</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>4306.0167530286553</v>
+      </c>
+      <c r="W103">
+        <v>4248.8710726165809</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>57.145680412074398</v>
+      </c>
+      <c r="Y103">
+        <v>73.256389863551021</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>4281.3</v>
+      </c>
+      <c r="D104">
+        <v>4340</v>
+      </c>
+      <c r="E104">
+        <v>4265</v>
+      </c>
+      <c r="F104">
+        <v>4325</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>4310</v>
+      </c>
+      <c r="H104">
+        <v>4304.0689569305059</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>4350.746603869864</v>
+      </c>
+      <c r="K104">
+        <v>4279.8002622368131</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>54.752048497381701</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>75</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.8</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>4308.9372525627086</v>
+      </c>
+      <c r="W104">
+        <v>4254.5102524227605</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>54.427000139948177</v>
+      </c>
+      <c r="Y104">
+        <v>69.49051191883045</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>4331.8999999999996</v>
+      </c>
+      <c r="D105">
+        <v>4357.3500000000004</v>
+      </c>
+      <c r="E105">
+        <v>4272.95</v>
+      </c>
+      <c r="F105">
+        <v>4300</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>4310.0999999999995</v>
+      </c>
+      <c r="H105">
+        <v>4307.0844784652527</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>4352.2140252321169</v>
+      </c>
+      <c r="K105">
+        <v>4278.2779817397432</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>45.211084371908115</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>27.050000000000182</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>84.400000000000546</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.32049763033175366</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>4307.5622906299841</v>
+      </c>
+      <c r="W105">
+        <v>4257.8798633544075</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>49.682427275576629</v>
+      </c>
+      <c r="Y105">
+        <v>65.52889499017968</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>4287</v>
+      </c>
+      <c r="D106">
+        <v>4375</v>
+      </c>
+      <c r="E106">
+        <v>4286</v>
+      </c>
+      <c r="F106">
+        <v>4340.5</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>4333.833333333333</v>
+      </c>
+      <c r="H106">
+        <v>4320.4589058992933</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>4357.2775751805357</v>
+      </c>
+      <c r="K106">
+        <v>4279.9939857975778</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>59.501767442635455</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>54.5</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>89</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.61235955056179781</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>4312.6296305330634</v>
+      </c>
+      <c r="W106">
+        <v>4263.999873476303</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>48.629757056760354</v>
+      </c>
+      <c r="Y106">
+        <v>62.149067403495813</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>4345</v>
+      </c>
+      <c r="D107">
+        <v>4356.1000000000004</v>
+      </c>
+      <c r="E107">
+        <v>4324.05</v>
+      </c>
+      <c r="F107">
+        <v>4345</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>4341.7166666666672</v>
+      </c>
+      <c r="H107">
+        <v>4331.0877862829802</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>4357.0158918070838</v>
+      </c>
+      <c r="K107">
+        <v>4289.7842111758937</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>60.917590929478408</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>20.949999999999818</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>32.050000000000182</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.65366614664585643</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>4317.6096873741308</v>
+      </c>
+      <c r="W107">
+        <v>4269.9998828484286</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>47.609804525702202</v>
+      </c>
+      <c r="Y107">
+        <v>59.241214827937092</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
